--- a/data/trans_dic/P55$familiarvive-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P55$familiarvive-Habitat-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.1203167793578599</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.03143127817000796</v>
+        <v>0.03143127817000797</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.2657780766584569</v>
@@ -685,7 +685,7 @@
         <v>0.2242113403157653</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1836963279736979</v>
+        <v>0.183696327973698</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.2114790553511162</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05487329812275224</v>
+        <v>0.05403785516059838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03451272985834088</v>
+        <v>0.03382870534124616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03415376844606338</v>
+        <v>0.02883454146195535</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.008170734569466306</v>
+        <v>0.007950877387809188</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1288818464619723</v>
+        <v>0.1506075561269189</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09236662642537945</v>
+        <v>0.09200855576814047</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1311685475713561</v>
+        <v>0.1178016984543873</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1306290905510368</v>
+        <v>0.1278444657561464</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1247101491906678</v>
+        <v>0.1335170322289935</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.09224956932771917</v>
+        <v>0.09550707007716756</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1151930027033294</v>
+        <v>0.1145750552141919</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.09288182344040105</v>
+        <v>0.08344686368162921</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2866367636082614</v>
+        <v>0.2801001259680262</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2970942014184365</v>
+        <v>0.3030699593158066</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2675191697674709</v>
+        <v>0.2754896751701978</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1064086838431169</v>
+        <v>0.08434129720027968</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4052292897502117</v>
+        <v>0.4291734628738365</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.311222744710451</v>
+        <v>0.3096708766600767</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3510892263980548</v>
+        <v>0.3512480789724174</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2443318355459499</v>
+        <v>0.2445967926727489</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3155304417744241</v>
+        <v>0.3154330400710788</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2522552045225873</v>
+        <v>0.2678576208860406</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2981398336540827</v>
+        <v>0.2908891890806518</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1708053249882091</v>
+        <v>0.1654795233813847</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07815151122074898</v>
+        <v>0.07871126002414008</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.05061945649961183</v>
+        <v>0.06774020079427374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06491156726805659</v>
+        <v>0.06294432546741867</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03248548601812026</v>
+        <v>0.03572457365854186</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.181354647363133</v>
+        <v>0.1877440404166763</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2270697404814474</v>
+        <v>0.2179143526499376</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1834820205207913</v>
+        <v>0.187175355165449</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1349909202215775</v>
+        <v>0.1393830947147195</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1592524749939498</v>
+        <v>0.1539836158037644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.184547298321254</v>
+        <v>0.1808063101708534</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.162477080946475</v>
+        <v>0.1643170105908798</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1212572474244075</v>
+        <v>0.1193296925393206</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2899298502282029</v>
+        <v>0.2855460116940959</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2806788345458475</v>
+        <v>0.2907957078973281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2884465099122617</v>
+        <v>0.2653297612524553</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.188977602137395</v>
+        <v>0.1951067770699901</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.413268101193029</v>
+        <v>0.4275300984730072</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4258766690762413</v>
+        <v>0.423789929913161</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.4236225001793797</v>
+        <v>0.4141269623807668</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.272013396855638</v>
+        <v>0.2651297969955559</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.327968311279198</v>
+        <v>0.3248809134039109</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3505536798914302</v>
+        <v>0.3427724061182032</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3388737182530072</v>
+        <v>0.3415942065857244</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2158461472676848</v>
+        <v>0.2140187021906759</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.225634094148965</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2008318183638248</v>
+        <v>0.2008318183638249</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2116336217963232</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04671723016390467</v>
+        <v>0.0465677938270987</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.08088568696614698</v>
+        <v>0.07889536209828291</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07651844893355091</v>
+        <v>0.1034274040054245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08786327659701221</v>
+        <v>0.08591977291837756</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1055455494972678</v>
+        <v>0.1024343286857135</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2464107290707375</v>
+        <v>0.2411803768630945</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1762495713625173</v>
+        <v>0.1718853092336045</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.176101960922826</v>
+        <v>0.1769124499623895</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1192597372520365</v>
+        <v>0.1259159644618139</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2170807965850374</v>
+        <v>0.2261397290300614</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1827139105535998</v>
+        <v>0.177909998409414</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1743859542841378</v>
+        <v>0.1768885990131761</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.463271180294738</v>
+        <v>0.4462837936692987</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.4832230608465825</v>
+        <v>0.4686243634251395</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.419044283173899</v>
+        <v>0.4294388186396427</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3487986365070759</v>
+        <v>0.3540434089085409</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3660087330207197</v>
+        <v>0.3676655717694678</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5257834646360308</v>
+        <v>0.52682596825978</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.4832926053916898</v>
+        <v>0.4532722002366326</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3566425722029344</v>
+        <v>0.3584117349885907</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3238747280762329</v>
+        <v>0.3293372635338047</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4554133836031372</v>
+        <v>0.4494145865995332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.4028887388447824</v>
+        <v>0.4101929960845417</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3218139527953416</v>
+        <v>0.3246639797406933</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2093001076213517</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1766956133023535</v>
+        <v>0.1766956133023534</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03493490122250151</v>
+        <v>0.0349582028954183</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1058651445091614</v>
+        <v>0.1075139513993589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0349006126798049</v>
+        <v>0.03532628877703716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08759894733336263</v>
+        <v>0.08585488485898038</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.27690838622418</v>
+        <v>0.2845749787674</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1938707027286852</v>
+        <v>0.1858365136532219</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1401888333951106</v>
+        <v>0.1378926466375143</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1313811674797374</v>
+        <v>0.1309475755526718</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2436086735281377</v>
+        <v>0.2398342139687866</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.191174566308634</v>
+        <v>0.198418974045136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1363658886530094</v>
+        <v>0.1301885894146949</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1369520778163631</v>
+        <v>0.1331046832801574</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2598248053759488</v>
+        <v>0.2916429129822206</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4134448438427043</v>
+        <v>0.4317386283844356</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2882607279433067</v>
+        <v>0.3050417763412679</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2550889741550492</v>
+        <v>0.2713064040504831</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5188284474835905</v>
+        <v>0.5301056855084025</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3879264043623763</v>
+        <v>0.399881923679701</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3651383640574719</v>
+        <v>0.3555625688472669</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2421604194339806</v>
+        <v>0.2495441904285181</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4402193940158496</v>
+        <v>0.4387829316955686</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3529089597167643</v>
+        <v>0.3632296673404548</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3130167950648509</v>
+        <v>0.3033591178619638</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2285286936490923</v>
+        <v>0.2299649384544249</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.2639909301953108</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.2013146325584255</v>
+        <v>0.2013146325584256</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.250624434792432</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09366357930322894</v>
+        <v>0.09858490516230982</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1204536448685069</v>
+        <v>0.1207601357499336</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1022095448318936</v>
+        <v>0.09497090901331036</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07524561766975402</v>
+        <v>0.07408302975443647</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2406246001620983</v>
+        <v>0.2438784623876211</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2310554300172905</v>
+        <v>0.2366337085839759</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2071271130239427</v>
+        <v>0.21339108741789</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1689077332369104</v>
+        <v>0.1707637678380646</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2079075683970177</v>
+        <v>0.207616581250103</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2125739849014827</v>
+        <v>0.2112936748866892</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1811364473924327</v>
+        <v>0.1859656117652191</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1449569936755971</v>
+        <v>0.1480849779815934</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2228291236217313</v>
+        <v>0.226546663000233</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2608977126061344</v>
+        <v>0.2645002553756535</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2341700921726541</v>
+        <v>0.2166472018746338</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1527519518303978</v>
+        <v>0.1563488933015401</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3675083390692294</v>
+        <v>0.364882012047018</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3471124169100049</v>
+        <v>0.3511278375384752</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3252089568597847</v>
+        <v>0.3312471231496483</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2330934075380414</v>
+        <v>0.2347275697385706</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2985094560080115</v>
+        <v>0.3037472652663393</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3020532441493636</v>
+        <v>0.2973315645654429</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2778226905414137</v>
+        <v>0.277737734022959</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1987175985408176</v>
+        <v>0.1991915074670181</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1859</v>
+        <v>1831</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1123</v>
+        <v>1101</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>949</v>
+        <v>801</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5772</v>
+        <v>6745</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5635</v>
+        <v>5613</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>7888</v>
+        <v>7084</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>11087</v>
+        <v>10851</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>9810</v>
+        <v>10503</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>8629</v>
+        <v>8934</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>10127</v>
+        <v>10073</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>12806</v>
+        <v>11505</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9710</v>
+        <v>9488</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9667</v>
+        <v>9861</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>7431</v>
+        <v>7653</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5639</v>
+        <v>4470</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>18149</v>
+        <v>19221</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>18985</v>
+        <v>18891</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21114</v>
+        <v>21123</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>20737</v>
+        <v>20760</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>24820</v>
+        <v>24812</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23596</v>
+        <v>25055</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>26211</v>
+        <v>25574</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23549</v>
+        <v>22815</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3753</v>
+        <v>3780</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>2311</v>
+        <v>3093</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2655</v>
+        <v>2575</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1360</v>
+        <v>1495</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>12274</v>
+        <v>12707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>20059</v>
+        <v>19251</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>14099</v>
+        <v>14383</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>12775</v>
+        <v>13191</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18426</v>
+        <v>17816</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>24729</v>
+        <v>24227</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>19132</v>
+        <v>19349</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>16551</v>
+        <v>16288</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>13923</v>
+        <v>13712</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>12815</v>
+        <v>13277</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>11800</v>
+        <v>10854</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7910</v>
+        <v>8166</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>27970</v>
+        <v>28935</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>37622</v>
+        <v>37438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32553</v>
+        <v>31823</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>25743</v>
+        <v>25091</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37947</v>
+        <v>37589</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>46973</v>
+        <v>45930</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>39903</v>
+        <v>40224</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>29461</v>
+        <v>29212</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2260</v>
+        <v>2204</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1780</v>
+        <v>2406</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2610</v>
+        <v>2552</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4904</v>
+        <v>4760</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>12793</v>
+        <v>12521</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>9089</v>
+        <v>8864</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>11429</v>
+        <v>11481</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8114</v>
+        <v>8567</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>17335</v>
+        <v>18059</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>13673</v>
+        <v>13314</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>16498</v>
+        <v>16735</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9996</v>
+        <v>9629</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>13501</v>
+        <v>13093</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9748</v>
+        <v>9990</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10362</v>
+        <v>10518</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17006</v>
+        <v>17083</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>27297</v>
+        <v>27351</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>24923</v>
+        <v>23375</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>23145</v>
+        <v>23260</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>22036</v>
+        <v>22408</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>36367</v>
+        <v>35888</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>30149</v>
+        <v>30696</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30445</v>
+        <v>30715</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4238</v>
+        <v>4304</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1030</v>
+        <v>1042</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3904</v>
+        <v>3826</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>19935</v>
+        <v>20487</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>15175</v>
+        <v>14546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>11048</v>
+        <v>10867</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14824</v>
+        <v>14775</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>23167</v>
+        <v>22808</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>22617</v>
+        <v>23474</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>14771</v>
+        <v>14102</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>21556</v>
+        <v>20950</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6004</v>
+        <v>6739</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>16552</v>
+        <v>17284</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>8506</v>
+        <v>9001</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>11368</v>
+        <v>12090</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>37351</v>
+        <v>38163</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>30364</v>
+        <v>31300</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>28777</v>
+        <v>28022</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>27323</v>
+        <v>28157</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>41864</v>
+        <v>41727</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>41752</v>
+        <v>42973</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>33906</v>
+        <v>32860</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>35969</v>
+        <v>36195</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11856</v>
+        <v>12479</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>17606</v>
+        <v>17651</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12414</v>
+        <v>11535</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>12726</v>
+        <v>12529</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>55566</v>
+        <v>56317</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>64587</v>
+        <v>66146</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>55378</v>
+        <v>57053</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>60341</v>
+        <v>61004</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>74327</v>
+        <v>74223</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>90492</v>
+        <v>89947</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>70430</v>
+        <v>72307</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>76300</v>
+        <v>77946</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28205</v>
+        <v>28676</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>38135</v>
+        <v>38661</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28442</v>
+        <v>26314</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>25834</v>
+        <v>26442</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>84866</v>
+        <v>84259</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>97028</v>
+        <v>98151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>86949</v>
+        <v>88563</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>83271</v>
+        <v>83854</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>106717</v>
+        <v>108590</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>128583</v>
+        <v>126573</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>108023</v>
+        <v>107990</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>104597</v>
+        <v>104847</v>
       </c>
     </row>
     <row r="24">
